--- a/Hardware/Production/JLCSMT_Sample_CPL1.xlsx
+++ b/Hardware/Production/JLCSMT_Sample_CPL1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/eagle/projects/SmartEncoder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/eagle/projects/SmartEncoder/Hardware/Production/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0AE4B0-ABF7-4D4A-ACB3-81300AE5BED5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003680CA-9411-E64F-ADAD-DDDC7A07EA8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{F32A5F85-0B92-F040-A7F6-EB30B04D81CF}" name="Board.mnt" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr sourceFile="/Users/daniel/Documents/eagle/projects/PocketCompass/Board.mnt.txt" decimal="," thousands="." space="1" consecutive="1">
-      <textFields count="8">
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
+  <connection id="1" xr16:uid="{499F7EF3-8199-2849-8B32-FB2C8B3973FC}" name="Board.mnt" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/eagle/projects/SmartEncoder/Hardware/Production/Board.mnt.txt" decimal="," thousands="." space="1" consecutive="1">
+      <textFields count="5">
         <textField type="text"/>
         <textField type="text"/>
         <textField type="text"/>
@@ -39,8 +36,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{AA58D279-55BB-0C4F-8747-C1D86195AE5F}" name="Board.mnt1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/eagle/projects/SmartEncoder/Board.mnt.txt" decimal="," thousands="." space="1" consecutive="1">
+  <connection id="2" xr16:uid="{AA58D279-55BB-0C4F-8747-C1D86195AE5F}" name="Board.mnt1" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+    <textPr sourceFile="/Users/daniel/Documents/eagle/projects/SmartEncoder/Board.mnt.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="5">
         <textField type="text"/>
         <textField type="text"/>
@@ -54,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="146">
   <si>
     <t>Designator</t>
   </si>
@@ -392,9 +389,6 @@
     <t>27.78</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>10.43</t>
   </si>
   <si>
@@ -456,6 +450,45 @@
   </si>
   <si>
     <t>12.22</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>20.25</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>5.38</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>19.99</t>
+  </si>
+  <si>
+    <t>8.26</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>24.00</t>
   </si>
 </sst>
 </file>
@@ -823,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="J10:L33"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -840,9 +873,14 @@
     <col min="10" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,16 +901,21 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -885,13 +928,18 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>69</v>
@@ -907,13 +955,18 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>70</v>
@@ -929,13 +982,18 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>71</v>
@@ -951,16 +1009,21 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -973,13 +1036,18 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>72</v>
@@ -995,8 +1063,13 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1017,8 +1090,13 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1039,8 +1117,13 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1061,8 +1144,13 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -1083,8 +1171,13 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1092,7 +1185,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -1105,8 +1198,13 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -1127,8 +1225,13 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -1149,8 +1252,13 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -1171,8 +1279,13 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -1193,8 +1306,13 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -1202,7 +1320,7 @@
         <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
@@ -1215,16 +1333,21 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -1237,13 +1360,18 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>91</v>
@@ -1259,13 +1387,18 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>92</v>
@@ -1281,13 +1414,18 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>93</v>
@@ -1303,13 +1441,18 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>94</v>
@@ -1325,13 +1468,18 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>95</v>
@@ -1347,8 +1495,13 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -1369,13 +1522,18 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>98</v>
@@ -1391,8 +1549,13 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -1413,8 +1576,13 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
@@ -1435,8 +1603,13 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
@@ -1457,8 +1630,13 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
@@ -1466,7 +1644,7 @@
         <v>105</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -1479,8 +1657,13 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
@@ -1501,8 +1684,13 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -1523,8 +1711,13 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>64</v>
       </c>
@@ -1532,7 +1725,7 @@
         <v>110</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -1545,8 +1738,13 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
@@ -1554,7 +1752,7 @@
         <v>111</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -1567,162 +1765,199 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="B38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D48" s="2"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
@@ -1730,9 +1965,7 @@
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
@@ -1740,9 +1973,7 @@
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
@@ -1750,9 +1981,7 @@
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
@@ -1760,9 +1989,7 @@
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
@@ -1770,9 +1997,7 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
@@ -1780,9 +2005,7 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
